--- a/Investments.xlsx
+++ b/Investments.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e0368301\PGD\C1_StatisticsEssentials\Assignment\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e0368301\PGD\C1_StatisticsEssentials\Assignment\Submission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07BEA69B-EBBB-4444-89DC-30EC809DE5A4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E58FF77-0F0A-4932-BE51-727FBD700673}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table -1.1" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
   <si>
     <t>C1</t>
   </si>
@@ -372,12 +372,6 @@
     <t>USA</t>
   </si>
   <si>
-    <t>GBR</t>
-  </si>
-  <si>
-    <t>CAN</t>
-  </si>
-  <si>
     <t>Others</t>
   </si>
   <si>
@@ -387,22 +381,46 @@
     <t>Cleantech / Semiconductors</t>
   </si>
   <si>
-    <t>Zymeworks</t>
-  </si>
-  <si>
-    <t>QuickPlay Media</t>
-  </si>
-  <si>
-    <t>Tribold</t>
-  </si>
-  <si>
-    <t>OpenGamma</t>
-  </si>
-  <si>
-    <t>SigFig</t>
-  </si>
-  <si>
-    <t>1stdibs</t>
+    <t>Answer (Below numbers are post cleaning the data)</t>
+  </si>
+  <si>
+    <t>INDIA</t>
+  </si>
+  <si>
+    <t>GREAT BRITAIN</t>
+  </si>
+  <si>
+    <t>Virtustream</t>
+  </si>
+  <si>
+    <t>SST Inc. (Formerly ShotSpotter)</t>
+  </si>
+  <si>
+    <t>Electric Cloud</t>
+  </si>
+  <si>
+    <t>Celltick Technologies</t>
+  </si>
+  <si>
+    <t>News, Search and Messaging</t>
+  </si>
+  <si>
+    <t>FirstCry.com</t>
+  </si>
+  <si>
+    <t>Manthan Systems</t>
+  </si>
+  <si>
+    <t>9.58 Million USD</t>
+  </si>
+  <si>
+    <t>0.86 Million USD</t>
+  </si>
+  <si>
+    <t>0.73 Million USD</t>
+  </si>
+  <si>
+    <t>27.7 Million USD</t>
   </si>
 </sst>
 </file>
@@ -619,7 +637,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -665,7 +683,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -719,6 +736,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1037,7 +1060,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1048,33 +1071,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="24"/>
       <c r="C1" s="15"/>
     </row>
     <row r="2" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="15"/>
     </row>
     <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+    </row>
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>16</v>
+      <c r="C4" s="35" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1084,8 +1107,8 @@
       <c r="B5" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="17">
-        <v>90247</v>
+      <c r="C5" s="18">
+        <v>73220</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1095,18 +1118,18 @@
       <c r="B6" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="17">
-        <v>66368</v>
+      <c r="C6" s="18">
+        <v>57804</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="18" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1114,10 +1137,10 @@
       <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="18" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1125,11 +1148,11 @@
       <c r="A9" s="5">
         <v>5</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="16">
-        <v>114949</v>
+      <c r="C9" s="36">
+        <v>87641</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1162,7 +1185,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -1174,21 +1197,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="26"/>
     </row>
     <row r="2" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
     </row>
     <row r="3" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
     </row>
     <row r="4" spans="1:3" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
@@ -1208,8 +1231,8 @@
       <c r="B5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="12">
-        <v>9585806.4585897308</v>
+      <c r="C5" s="12" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1219,8 +1242,8 @@
       <c r="B6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="12">
-        <v>859051.80009097105</v>
+      <c r="C6" s="12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1230,8 +1253,8 @@
       <c r="B7" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="12">
-        <v>732133.80478087603</v>
+      <c r="C7" s="12" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1241,8 +1264,8 @@
       <c r="B8" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="12">
-        <v>27706645.9798439</v>
+      <c r="C8" s="12" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1281,7 +1304,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1292,21 +1315,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="26"/>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
     </row>
     <row r="3" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
@@ -1338,7 +1361,7 @@
         <v>20</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
@@ -1349,7 +1372,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1376,8 +1399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1389,209 +1412,209 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="30"/>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="23" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="19">
+      <c r="A5" s="18">
         <v>1</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="18">
         <v>12063</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="18">
         <v>621</v>
       </c>
-      <c r="E5" s="17">
-        <v>422</v>
+      <c r="E5" s="18">
+        <v>328</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="19">
+      <c r="A6" s="18">
         <v>2</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="18">
         <v>107757097294</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="18">
         <v>5379078691</v>
       </c>
-      <c r="E6" s="17">
-        <v>3599289960</v>
+      <c r="E6" s="18">
+        <v>2949543602</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="19">
+      <c r="A7" s="18">
         <v>3</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="18">
+        <v>4</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="18">
+        <v>5</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D9" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
-        <v>4</v>
-      </c>
-      <c r="B8" s="20" t="s">
+      <c r="E9" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="18">
+        <v>6</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="18">
+        <v>2950</v>
+      </c>
+      <c r="D10" s="18">
+        <v>147</v>
+      </c>
+      <c r="E10" s="18">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="18">
+        <v>7</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="18">
+        <v>2714</v>
+      </c>
+      <c r="D11" s="18">
+        <v>133</v>
+      </c>
+      <c r="E11" s="18">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="18">
         <v>8</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="19">
-        <v>5</v>
-      </c>
-      <c r="B9" s="20" t="s">
+      <c r="B12" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="18">
+        <v>2350</v>
+      </c>
+      <c r="D12" s="18">
+        <v>130</v>
+      </c>
+      <c r="E12" s="18">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="18">
         <v>9</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="19">
-        <v>6</v>
-      </c>
-      <c r="B10" s="20" t="s">
+      <c r="B13" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="18">
         <v>10</v>
       </c>
-      <c r="C10" s="17">
-        <v>2950</v>
-      </c>
-      <c r="D10" s="17">
-        <v>147</v>
-      </c>
-      <c r="E10" s="17">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="19">
-        <v>7</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="17">
-        <v>2714</v>
-      </c>
-      <c r="D11" s="17">
-        <v>133</v>
-      </c>
-      <c r="E11" s="17">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="19">
-        <v>8</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="17">
-        <v>2350</v>
-      </c>
-      <c r="D12" s="17">
-        <v>130</v>
-      </c>
-      <c r="E12" s="17">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="19">
-        <v>9</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="17" t="s">
+      <c r="B14" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="19">
-        <v>10</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="17" t="s">
+      <c r="D14" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>50</v>
+      <c r="E14" s="18" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
